--- a/scrapers/scraped-data/ILCANC 3  2023_ilca 6.xlsx
+++ b/scrapers/scraped-data/ILCANC 3  2023_ilca 6.xlsx
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -5683,7 +5683,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -6909,7 +6909,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -8104,7 +8104,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -8433,7 +8433,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -9170,7 +9170,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -9574,7 +9574,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -10390,7 +10390,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
